--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Invoice Number: {meta:invoice_id}</t>
   </si>
   <si>
-    <t>Date: {meta:today}</t>
-  </si>
-  <si>
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>TIN Number: 07627112651</t>
   </si>
   <si>
-    <t>To</t>
-  </si>
-  <si>
     <t>{meta:vendor_name}</t>
   </si>
   <si>
@@ -161,12 +155,6 @@
     <t>{meta:r_total}</t>
   </si>
   <si>
-    <t>Service Tax (@15%, included in Royalty)</t>
-  </si>
-  <si>
-    <t>{meta:r_st}</t>
-  </si>
-  <si>
     <t>Kindly make the payment through RTGS/NEFT, Our bank wiring details are as mentioned below</t>
   </si>
   <si>
@@ -201,27 +189,26 @@
   </si>
   <si>
     <t>Delhi - 110051</t>
+  </si>
+  <si>
+    <t>BILL TO:</t>
+  </si>
+  <si>
+    <t>Date: {meta:invoice_date}</t>
+  </si>
+  <si>
+    <t>ANNEXURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -236,13 +223,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Cambria"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="14"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -288,17 +274,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -370,19 +345,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -754,202 +716,239 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,583 +1228,580 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:N17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="1" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="2:14" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="23"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+    </row>
+    <row r="19" spans="2:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+    </row>
+    <row r="21" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="50"/>
+      <c r="N21" s="53"/>
+    </row>
+    <row r="22" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="55"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="56"/>
+    </row>
+    <row r="24" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B24" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
+    </row>
+    <row r="25" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B25" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-    </row>
-    <row r="3" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="4" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="30"/>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="2:14" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B16" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="42"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="43"/>
-    </row>
-    <row r="20" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B20" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="66"/>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="44"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="55"/>
-    </row>
-    <row r="22" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B22" s="47" t="s">
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="63"/>
+    </row>
+    <row r="26" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B26" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="66"/>
+    </row>
+    <row r="27" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B27" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="52"/>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
-    </row>
-    <row r="24" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B24" s="56" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-    </row>
-    <row r="25" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B25" s="59" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B28" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="61"/>
-    </row>
-    <row r="26" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B26" s="62" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="66"/>
-    </row>
-    <row r="27" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B27" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="66"/>
-    </row>
-    <row r="28" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B28" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
+  <mergeCells count="17">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:N25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G27:N27"/>
     <mergeCell ref="G28:N28"/>
     <mergeCell ref="G26:N26"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -204,6 +204,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -245,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -407,47 +410,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -636,16 +598,113 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -654,9 +713,22 @@
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,48 +737,8 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -716,15 +748,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,121 +771,190 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,92 +963,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:N26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1255,21 +1293,21 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
@@ -1287,501 +1325,501 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" ht="13" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="18"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="18"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="18"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="18"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="18"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="2:14" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="2:14" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="21"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="23"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
     </row>
     <row r="15" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
     </row>
     <row r="19" spans="2:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
     </row>
     <row r="20" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
     </row>
     <row r="21" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51" t="s">
+      <c r="J21" s="73"/>
+      <c r="K21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="50"/>
-      <c r="N21" s="53"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="54" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="55"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="79"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="56"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="54"/>
     </row>
     <row r="24" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="59"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
     </row>
     <row r="25" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="63"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="62"/>
     </row>
     <row r="26" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="64" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="27" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="67" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="55"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="71"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1790,18 +1828,18 @@
     <mergeCell ref="B24:N24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="G25:N25"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G27:N27"/>
     <mergeCell ref="G28:N28"/>
     <mergeCell ref="G26:N26"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -204,9 +204,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -864,6 +861,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -894,15 +906,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +937,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,28 +975,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,7 +1264,7 @@
   <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G26" sqref="G26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1293,21 +1290,21 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
@@ -1615,46 +1612,46 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
     </row>
     <row r="19" spans="2:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="68"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
     </row>
     <row r="20" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34" t="s">
         <v>15</v>
@@ -1672,154 +1669,154 @@
       <c r="N20" s="36"/>
     </row>
     <row r="21" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74" t="s">
+      <c r="J21" s="40"/>
+      <c r="K21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="73"/>
-      <c r="N21" s="76"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="77" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="67"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="53"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="64"/>
     </row>
     <row r="26" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="79"/>
     </row>
     <row r="27" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/templates/anuj/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,40 +876,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,6 +946,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,21 +1290,21 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
@@ -1612,46 +1612,46 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
     </row>
     <row r="19" spans="2:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="55"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34" t="s">
         <v>15</v>
@@ -1669,15 +1669,15 @@
       <c r="N20" s="36"/>
     </row>
     <row r="21" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="39" t="s">
         <v>37</v>
       </c>
@@ -1692,81 +1692,81 @@
       <c r="N21" s="43"/>
     </row>
     <row r="22" spans="2:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="65" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="67"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="55"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="56"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="59"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="64"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
     </row>
     <row r="26" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="77" t="s">
@@ -1781,45 +1781,51 @@
       <c r="N26" s="79"/>
     </row>
     <row r="27" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="73"/>
     </row>
     <row r="28" spans="2:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="53"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G26:N26"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B23:N23"/>
     <mergeCell ref="B24:N24"/>
@@ -1831,12 +1837,6 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,24 +50,9 @@
     <t>Period: {meta:sd} TO {meta:ed}</t>
   </si>
   <si>
-    <t>Service Tax Number: AAFCB1281JSD001</t>
-  </si>
-  <si>
-    <t>Bookings: {meta:count}</t>
-  </si>
-  <si>
-    <t>TIN Number: 07627112651</t>
-  </si>
-  <si>
     <t>BILL TO:</t>
   </si>
   <si>
-    <t>{meta:vendor_name}</t>
-  </si>
-  <si>
-    <t>{meta:vendor_address}</t>
-  </si>
-  <si>
     <t>{meta:gst_number}</t>
   </si>
   <si>
@@ -176,32 +177,56 @@
   </si>
   <si>
     <t>ICIC0001024</t>
+  </si>
+  <si>
+    <t>GSTIN: 07AAFCB1281J1ZQ</t>
+  </si>
+  <si>
+    <t>{meta:company_name}</t>
+  </si>
+  <si>
+    <t>{meta:company_address}</t>
+  </si>
+  <si>
+    <t>Bookings: {meta:total_qty}</t>
+  </si>
+  <si>
+    <t>102405500277</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="14.0"/>
-      <name val="Cambria"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +234,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,6 +249,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -234,6 +260,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -242,6 +269,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -252,6 +280,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -260,6 +289,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -268,6 +298,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -282,6 +313,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -294,6 +326,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -306,6 +339,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -318,6 +352,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -328,6 +363,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -336,6 +372,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -346,6 +383,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -358,6 +396,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -368,6 +407,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -380,6 +420,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -392,6 +433,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -402,6 +444,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -414,6 +457,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -428,6 +472,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -442,6 +487,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -456,6 +502,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -466,6 +513,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -478,6 +526,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -488,6 +537,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -498,6 +548,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -508,6 +559,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -516,6 +568,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -526,188 +579,484 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="68">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:N26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.57"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -723,13 +1072,25 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -745,495 +1106,527 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
-        <v>7</v>
+      <c r="B8" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" s="64" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="60"/>
+      <c r="B14" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11" t="s">
+      <c r="D14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="18" t="s">
+      <c r="E14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="18" t="s">
+      <c r="F14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="20" t="s">
+      <c r="G14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="H14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="I14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="J14" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="K14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="L14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="M14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="N14" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="22" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="F15" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="24" t="s">
+      <c r="G15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="H15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="I15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="J15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="K15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="L15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="M15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="N15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="25" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
+    </row>
+    <row r="19" spans="1:14" s="57" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="55"/>
+      <c r="N19" s="56"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="J20" s="23"/>
+      <c r="K20" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="27" t="s">
+      <c r="L20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="30" t="s">
+      <c r="M20" s="23"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="37" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="38" t="s">
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="42"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="51"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="52">
-        <v>1.02405500277E11</v>
-      </c>
-      <c r="N25" s="53"/>
-    </row>
-    <row r="26">
+      <c r="G25" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="47"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="B26" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="53"/>
-    </row>
-    <row r="27">
+      <c r="G26" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="47"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="46"/>
+      <c r="B27" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:H20"/>
+  <mergeCells count="16">
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="I21:N21"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B23:N23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="G24:N24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="G25:N25"/>
     <mergeCell ref="G26:N26"/>
     <mergeCell ref="G27:N27"/>
+    <mergeCell ref="B22:N23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -140,9 +140,6 @@
     <t>{meta:msg}</t>
   </si>
   <si>
-    <t>247around Royality Breakup</t>
-  </si>
-  <si>
     <t>{meta:r_sc}</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>102405500277</t>
+  </si>
+  <si>
+    <t>247around Royalty Breakup</t>
   </si>
 </sst>
 </file>
@@ -671,46 +671,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -720,53 +765,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:N26"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1072,23 +1072,23 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -1185,7 +1185,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1193,7 +1193,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1259,7 +1259,7 @@
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
       <c r="D12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1290,45 +1290,45 @@
       <c r="M13" s="11"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" s="64" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="58" t="s">
+    <row r="14" spans="1:14" s="40" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="62" t="s">
+      <c r="M14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="39" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1392,224 +1392,229 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" spans="1:14" s="57" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="58" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+    </row>
+    <row r="19" spans="1:14" s="33" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
+      <c r="B22" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="B24" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="45"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-      <c r="B25" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="47"/>
+      <c r="G25" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="54"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="B26" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="47"/>
+      <c r="G26" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="54"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="B27" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
+      <c r="G27" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="I21:N21"/>
     <mergeCell ref="B26:D26"/>
@@ -1621,11 +1626,6 @@
     <mergeCell ref="G26:N26"/>
     <mergeCell ref="G27:N27"/>
     <mergeCell ref="B22:N23"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,9 +38,6 @@
     <t>Invoice Number: {meta:invoice_id}</t>
   </si>
   <si>
-    <t>92C/1, Lane 7, East Azad Nagar</t>
-  </si>
-  <si>
     <t>Date: {meta:invoice_date}</t>
   </si>
   <si>
@@ -192,12 +189,15 @@
   </si>
   <si>
     <t>247around Royalty Breakup</t>
+  </si>
+  <si>
+    <t>A-1/7a, A BLOCK, KRISHNA NAGAR,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -777,6 +777,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1047,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1145,7 +1148,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1153,7 +1156,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1165,7 +1168,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1173,7 +1176,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1185,7 +1188,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1193,7 +1196,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1237,11 +1240,11 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1259,7 +1262,7 @@
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1277,7 +1280,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="11"/>
       <c r="D13" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1293,85 +1296,85 @@
     <row r="14" spans="1:14" s="40" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="E14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="F14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="G14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="H14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="I14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="J14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="K14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="L14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="M14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="N14" s="39" t="s">
         <v>20</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="E15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="J15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="L15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1393,7 +1396,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -1411,7 +1414,7 @@
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -1436,16 +1439,16 @@
       <c r="G19" s="67"/>
       <c r="H19" s="30"/>
       <c r="I19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="K19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="L19" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="M19" s="31"/>
       <c r="N19" s="32"/>
@@ -1453,7 +1456,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -1462,14 +1465,14 @@
       <c r="G20" s="42"/>
       <c r="H20" s="44"/>
       <c r="I20" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="26"/>
@@ -1477,7 +1480,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
@@ -1486,7 +1489,7 @@
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
@@ -1497,7 +1500,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
@@ -1531,7 +1534,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -1551,14 +1554,14 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
@@ -1571,14 +1574,14 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
@@ -1591,14 +1594,14 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashDetailed-v3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1FF2E0-65AF-4240-9006-27B7895825C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,13 +192,13 @@
     <t>247around Royalty Breakup</t>
   </si>
   <si>
-    <t>A-1/7a, A BLOCK, KRISHNA NAGAR,</t>
+    <t xml:space="preserve">A-1/7, F/F A BLOCK, KRISHNA NAGAR, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -707,50 +708,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,6 +728,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,19 +1048,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1075,25 +1076,25 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1109,7 +1110,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1125,7 +1126,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
@@ -1145,7 +1146,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
         <v>54</v>
@@ -1165,7 +1166,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>4</v>
@@ -1185,7 +1186,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>48</v>
@@ -1205,7 +1206,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="13"/>
       <c r="C9" s="2"/>
@@ -1221,7 +1222,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1237,7 +1238,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
         <v>6</v>
@@ -1257,7 +1258,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
@@ -1275,7 +1276,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="14"/>
       <c r="C13" s="11"/>
@@ -1293,7 +1294,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" s="40" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" s="40" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="34" t="s">
         <v>8</v>
@@ -1335,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="19" t="s">
         <v>21</v>
@@ -1377,7 +1378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="14"/>
       <c r="C16" s="9"/>
@@ -1393,50 +1394,50 @@
       <c r="M16" s="9"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="63"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
-    </row>
-    <row r="19" spans="1:14" s="33" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14" s="33" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="30"/>
       <c r="I19" s="34" t="s">
         <v>15</v>
@@ -1453,17 +1454,17 @@
       <c r="M19" s="31"/>
       <c r="N19" s="32"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="44"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="22" t="s">
         <v>36</v>
       </c>
@@ -1477,147 +1478,142 @@
       <c r="M20" s="23"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="52"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="60"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="54"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="54"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="62"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="57"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="I21:N21"/>
     <mergeCell ref="B26:D26"/>
@@ -1629,6 +1625,11 @@
     <mergeCell ref="G26:N26"/>
     <mergeCell ref="G27:N27"/>
     <mergeCell ref="B22:N23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
